--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E9648-BCD7-47E7-BB1F-E18A6E4363AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1476" yWindow="2304" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>StateNum</t>
+  </si>
+  <si>
+    <t>Probability.Cut.Off</t>
+  </si>
+  <si>
+    <t>Window.Size</t>
+  </si>
+  <si>
+    <t>Sample.Size</t>
+  </si>
+  <si>
+    <t>AR1</t>
+  </si>
+  <si>
+    <t>VAR1</t>
+  </si>
+  <si>
+    <t>AR1_logistic_kmeans</t>
+  </si>
+  <si>
+    <t>AR1_logistic_lm</t>
+  </si>
+  <si>
+    <t>AR1_state_based_logistic</t>
+  </si>
+  <si>
+    <t>Avg.Cycle.Usage</t>
+  </si>
+  <si>
+    <t>Survival.Rate</t>
+  </si>
+  <si>
+    <t>Correctly.Scheduled</t>
+  </si>
+  <si>
+    <t>Correctly.Unscheduled</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +383,2477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.02</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0.02</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.01</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.01</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.02</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>0.02</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0.02</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.02</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+      <c r="D48">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0.1</v>
+      </c>
+      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0.01</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0.01</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.02</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0.02</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0.02</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>0.02</v>
+      </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>0.1</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>0.1</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>0.1</v>
+      </c>
+      <c r="D64">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>0.1</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D68">
+        <v>36</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D69">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>0.01</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>0.01</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0.01</v>
+      </c>
+      <c r="D72">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>0.01</v>
+      </c>
+      <c r="D73">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>0.02</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>0.02</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>0.02</v>
+      </c>
+      <c r="D76">
+        <v>36</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0.02</v>
+      </c>
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.1</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>0.1</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
+        <v>36</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0.1</v>
+      </c>
+      <c r="D81">
+        <v>36</v>
+      </c>
+      <c r="E81">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D83">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D84">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D85">
+        <v>36</v>
+      </c>
+      <c r="E85">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>0.01</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>0.01</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>0.01</v>
+      </c>
+      <c r="D88">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>0.01</v>
+      </c>
+      <c r="D89">
+        <v>36</v>
+      </c>
+      <c r="E89">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>0.02</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>0.02</v>
+      </c>
+      <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>0.02</v>
+      </c>
+      <c r="D92">
+        <v>36</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>0.02</v>
+      </c>
+      <c r="D93">
+        <v>36</v>
+      </c>
+      <c r="E93">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>0.1</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>0.1</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>0.1</v>
+      </c>
+      <c r="D96">
+        <v>36</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>0.1</v>
+      </c>
+      <c r="D97">
+        <v>36</v>
+      </c>
+      <c r="E97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>30</v>
+      </c>
+      <c r="C99">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D100">
+        <v>36</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D101">
+        <v>36</v>
+      </c>
+      <c r="E101">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>0.01</v>
+      </c>
+      <c r="D102">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>0.01</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>0.01</v>
+      </c>
+      <c r="D104">
+        <v>36</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>0.01</v>
+      </c>
+      <c r="D105">
+        <v>36</v>
+      </c>
+      <c r="E105">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>0.02</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>0.02</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>0.02</v>
+      </c>
+      <c r="D108">
+        <v>36</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>0.02</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+      <c r="E109">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>0.1</v>
+      </c>
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>0.1</v>
+      </c>
+      <c r="D111">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>0.1</v>
+      </c>
+      <c r="D112">
+        <v>36</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>0.1</v>
+      </c>
+      <c r="D113">
+        <v>36</v>
+      </c>
+      <c r="E113">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D115">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+      <c r="C116">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D116">
+        <v>36</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D117">
+        <v>36</v>
+      </c>
+      <c r="E117">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>0.01</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>0.01</v>
+      </c>
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>0.01</v>
+      </c>
+      <c r="D120">
+        <v>36</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>0.01</v>
+      </c>
+      <c r="D121">
+        <v>36</v>
+      </c>
+      <c r="E121">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>0.02</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>0.02</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>0.02</v>
+      </c>
+      <c r="D124">
+        <v>36</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>0.02</v>
+      </c>
+      <c r="D125">
+        <v>36</v>
+      </c>
+      <c r="E125">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>0.1</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>0.1</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>0.1</v>
+      </c>
+      <c r="D128">
+        <v>36</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>0.1</v>
+      </c>
+      <c r="D129">
+        <v>36</v>
+      </c>
+      <c r="E129">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>0.125</v>
+      </c>
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>0.125</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>0.125</v>
+      </c>
+      <c r="D132">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>0.125</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>0.15</v>
+      </c>
+      <c r="D134">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>0.15</v>
+      </c>
+      <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>0.15</v>
+      </c>
+      <c r="D136">
+        <v>36</v>
+      </c>
+      <c r="E136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>0.15</v>
+      </c>
+      <c r="D137">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D141">
+        <v>36</v>
+      </c>
+      <c r="E141">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>0.2</v>
+      </c>
+      <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>0.2</v>
+      </c>
+      <c r="D143">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>0.2</v>
+      </c>
+      <c r="D144">
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>0.2</v>
+      </c>
+      <c r="D145">
+        <v>36</v>
+      </c>
+      <c r="E145">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>0.125</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>0.125</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>0.125</v>
+      </c>
+      <c r="D148">
+        <v>36</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>0.125</v>
+      </c>
+      <c r="D149">
+        <v>36</v>
+      </c>
+      <c r="E149">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>0.15</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>0.15</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>0.15</v>
+      </c>
+      <c r="D152">
+        <v>36</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>0.15</v>
+      </c>
+      <c r="D153">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D155">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D156">
+        <v>36</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D157">
+        <v>36</v>
+      </c>
+      <c r="E157">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>0.2</v>
+      </c>
+      <c r="D158">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>0.2</v>
+      </c>
+      <c r="D159">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>0.2</v>
+      </c>
+      <c r="D160">
+        <v>36</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>0.2</v>
+      </c>
+      <c r="D161">
+        <v>36</v>
+      </c>
+      <c r="E161">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -509,10 +509,18 @@
       <c r="E18" t="n">
         <v>100.0</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="F18" t="n">
+        <v>0.40469823744736444</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9632596857983351</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.667115737905695</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -547,10 +555,18 @@
       <c r="E20" t="n">
         <v>100.0</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="F20" t="n">
+        <v>0.23376534472228433</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9584309133489461</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8591682419659735</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -585,10 +601,18 @@
       <c r="E22" t="n">
         <v>100.0</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="F22" t="n">
+        <v>0.44438982700844004</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9535910208714294</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.35260115606936415</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6672383168983892</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -623,10 +647,18 @@
       <c r="E24" t="n">
         <v>100.0</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="F24" t="n">
+        <v>0.28547758137319673</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9498525073746312</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8593306863301191</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -661,10 +693,18 @@
       <c r="E26" t="n">
         <v>100.0</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="F26" t="n">
+        <v>0.48796146759368186</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9424023524899316</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3756906077348066</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6675041362828604</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -699,10 +739,18 @@
       <c r="E28" t="n">
         <v>100.0</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="F28" t="n">
+        <v>0.34522306229342353</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9362803663878932</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.07964601769911504</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8592774730470967</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -737,10 +785,18 @@
       <c r="E30" t="n">
         <v>100.0</v>
       </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="F30" t="n">
+        <v>0.6249317685531015</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8918521489205267</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6926229508196722</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6779915063702223</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -775,10 +831,18 @@
       <c r="E32" t="n">
         <v>100.0</v>
       </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="F32" t="n">
+        <v>0.5318133642323951</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8914809414705269</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8615501809179203</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -877,10 +877,18 @@
       <c r="E34" t="n">
         <v>100.0</v>
       </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="F34" t="n">
+        <v>0.21355769201667998</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9980487804878049</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -915,10 +923,18 @@
       <c r="E36" t="n">
         <v>100.0</v>
       </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="F36" t="n">
+        <v>0.1305182624305586</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9949758094529215</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1487915407854985</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -953,10 +969,18 @@
       <c r="E38" t="n">
         <v>100.0</v>
       </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="F38" t="n">
+        <v>0.2380401064003773</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9980487804878049</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -991,10 +1015,18 @@
       <c r="E40" t="n">
         <v>100.0</v>
       </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="F40" t="n">
+        <v>0.14381895250299304</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9946036471901749</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.14865885908575746</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1029,10 +1061,18 @@
       <c r="E42" t="n">
         <v>100.0</v>
       </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="F42" t="n">
+        <v>0.26205697664602934</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9980485425051836</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1611626468769326</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1067,10 +1107,18 @@
       <c r="E44" t="n">
         <v>100.0</v>
       </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="F44" t="n">
+        <v>0.1491648886396274</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9942314849274284</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.14833711262282692</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1105,10 +1153,18 @@
       <c r="E46" t="n">
         <v>100.0</v>
       </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="F46" t="n">
+        <v>0.35005847682426466</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9971932393678687</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8728139904610492</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.16407283725033078</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1143,10 +1199,18 @@
       <c r="E48" t="n">
         <v>100.0</v>
       </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="F48" t="n">
+        <v>0.20188455256481289</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9923578751164958</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.6766917293233082</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.14828175431934687</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1181,10 +1245,18 @@
       <c r="E50" t="n">
         <v>100.0</v>
       </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="F50" t="n">
+        <v>0.2764719109546575</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9961120223558715</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1219,10 +1291,18 @@
       <c r="E52" t="n">
         <v>100.0</v>
       </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="F52" t="n">
+        <v>0.18231264115259835</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9981433345711103</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1487915407854985</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1257,10 +1337,18 @@
       <c r="E54" t="n">
         <v>100.0</v>
       </c>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="F54" t="n">
+        <v>0.29845875329786087</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9958062359448125</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1295,10 +1383,18 @@
       <c r="E56" t="n">
         <v>100.0</v>
       </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="F56" t="n">
+        <v>0.19610801542884834</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9981433345711103</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.14865885908575746</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1333,10 +1429,18 @@
       <c r="E58" t="n">
         <v>100.0</v>
       </c>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="F58" t="n">
+        <v>0.3243552359333806</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9956220357533747</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1611626468769326</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1371,10 +1475,18 @@
       <c r="E60" t="n">
         <v>100.0</v>
       </c>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="F60" t="n">
+        <v>0.21177133942446968</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9972150018566655</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.14833711262282692</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1409,10 +1521,18 @@
       <c r="E62" t="n">
         <v>100.0</v>
       </c>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="F62" t="n">
+        <v>0.40560786493606965</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9939128317506696</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8728139904610492</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.16407283725033078</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1447,10 +1567,18 @@
       <c r="E64" t="n">
         <v>100.0</v>
       </c>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="F64" t="n">
+        <v>0.2604255209656344</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9936802973977695</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.6766917293233082</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.14828175431934687</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -2829,10 +2957,18 @@
       <c r="E130" t="n">
         <v>100.0</v>
       </c>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
+      <c r="F130" t="n">
+        <v>0.364337730973338</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9955452492829682</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9027946537059538</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.16610320852203866</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -2867,10 +3003,18 @@
       <c r="E132" t="n">
         <v>100.0</v>
       </c>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
+      <c r="F132" t="n">
+        <v>0.21332572022247107</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9917986952469711</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -2905,10 +3049,18 @@
       <c r="E134" t="n">
         <v>100.0</v>
       </c>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
+      <c r="F134" t="n">
+        <v>0.37950075059722566</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9936527311565456</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.9038238702201622</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.16633625375711453</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -2943,10 +3095,18 @@
       <c r="E136" t="n">
         <v>100.0</v>
       </c>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
+      <c r="F136" t="n">
+        <v>0.22435912482594347</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9908667287977633</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -2981,10 +3141,18 @@
       <c r="E138" t="n">
         <v>100.0</v>
       </c>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
+      <c r="F138" t="n">
+        <v>0.39182454631101793</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9929186252365545</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.16658124038954383</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -3019,10 +3187,18 @@
       <c r="E140" t="n">
         <v>100.0</v>
       </c>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
+      <c r="F140" t="n">
+        <v>0.2290617294022051</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9908650260999254</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -3057,10 +3233,18 @@
       <c r="E142" t="n">
         <v>100.0</v>
       </c>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
+      <c r="F142" t="n">
+        <v>0.40736801657364646</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9921226184660479</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9079497907949791</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.1670097786927432</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3095,10 +3279,18 @@
       <c r="E144" t="n">
         <v>100.0</v>
       </c>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
+      <c r="F144" t="n">
+        <v>0.24103784786300939</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.990302126072361</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -3133,10 +3325,18 @@
       <c r="E146" t="n">
         <v>100.0</v>
       </c>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
+      <c r="F146" t="n">
+        <v>0.42043355453781783</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9937263978560117</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.9027946537059538</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.16610320852203866</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3171,10 +3371,18 @@
       <c r="E148" t="n">
         <v>100.0</v>
       </c>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
+      <c r="F148" t="n">
+        <v>0.26982042985315746</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9933085501858736</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -3209,10 +3417,18 @@
       <c r="E150" t="n">
         <v>100.0</v>
       </c>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
+      <c r="F150" t="n">
+        <v>0.4331372428258006</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9928688974218322</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.9038238702201622</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.16633625375711453</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -3247,10 +3463,18 @@
       <c r="E152" t="n">
         <v>100.0</v>
       </c>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
+      <c r="F152" t="n">
+        <v>0.2781125908828583</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9929368029739777</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -3285,10 +3509,18 @@
       <c r="E154" t="n">
         <v>100.0</v>
       </c>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
+      <c r="F154" t="n">
+        <v>0.4450039892767331</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.9924990852542993</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.16658124038954383</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -3323,10 +3555,18 @@
       <c r="E156" t="n">
         <v>100.0</v>
       </c>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
+      <c r="F156" t="n">
+        <v>0.2857312479486671</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9927509293680298</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -3361,10 +3601,18 @@
       <c r="E158" t="n">
         <v>100.0</v>
       </c>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
+      <c r="F158" t="n">
+        <v>0.4562276081532975</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9924972550933269</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9079497907949791</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.1670097786927432</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -3399,10 +3647,18 @@
       <c r="E160" t="n">
         <v>100.0</v>
       </c>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
+      <c r="F160" t="n">
+        <v>0.29293191666524554</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9927509293680298</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -1615,10 +1615,18 @@
       <c r="E66" t="n">
         <v>100.0</v>
       </c>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="F66" t="n">
+        <v>0.26487834166546753</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9833893485005171</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8722772277227723</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1675414364640884</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1657,10 +1665,18 @@
       <c r="E68" t="n">
         <v>100.0</v>
       </c>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="F68" t="n">
+        <v>0.32804434624954026</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9915724956904808</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9172113289760349</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.15907710989678203</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1699,10 +1715,18 @@
       <c r="E70" t="n">
         <v>100.0</v>
       </c>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="F70" t="n">
+        <v>0.2824196950911034</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9832590007110077</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8724035608308606</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.16756458074319658</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -1741,10 +1765,18 @@
       <c r="E72" t="n">
         <v>100.0</v>
       </c>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="F72" t="n">
+        <v>0.3480524121047629</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9915724956904808</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.922920892494929</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.16017933564295903</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -1783,10 +1815,18 @@
       <c r="E74" t="n">
         <v>100.0</v>
       </c>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="F74" t="n">
+        <v>0.3324972997404586</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9824822236586942</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.8730314960629921</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.16768039811998894</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -1825,10 +1865,18 @@
       <c r="E76" t="n">
         <v>100.0</v>
       </c>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="F76" t="n">
+        <v>0.37106428826619536</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9915724956904808</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.16000815328169588</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -1867,10 +1915,18 @@
       <c r="E78" t="n">
         <v>100.0</v>
       </c>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="F78" t="n">
+        <v>0.49760019710304754</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.978780186161557</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.8740234375</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.16786603930251867</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -1909,10 +1965,18 @@
       <c r="E80" t="n">
         <v>100.0</v>
       </c>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="F80" t="n">
+        <v>0.4488569093573252</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9904214559386973</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9221556886227545</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.16023678301694225</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -1951,10 +2015,18 @@
       <c r="E82" t="n">
         <v>100.0</v>
       </c>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="F82" t="n">
+        <v>0.45011971482527496</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9539842873176206</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -1993,10 +2065,18 @@
       <c r="E84" t="n">
         <v>100.0</v>
       </c>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="F84" t="n">
+        <v>0.5028296680132744</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9600422832980973</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8116045845272206</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.1401098901098901</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2035,10 +2115,18 @@
       <c r="E86" t="n">
         <v>100.0</v>
       </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="F86" t="n">
+        <v>0.4678280800538057</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.95377060680463</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2077,10 +2165,18 @@
       <c r="E88" t="n">
         <v>100.0</v>
       </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
+      <c r="F88" t="n">
+        <v>0.5238351162177194</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9600422832980973</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8150492264416315</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.14102564102564102</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2119,10 +2215,18 @@
       <c r="E90" t="n">
         <v>100.0</v>
       </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
+      <c r="F90" t="n">
+        <v>0.5094461796128538</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9531326738230548</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2161,10 +2265,18 @@
       <c r="E92" t="n">
         <v>100.0</v>
       </c>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="F92" t="n">
+        <v>0.53503806563257</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.959830866807611</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.814476458186929</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1408096555192356</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2203,10 +2315,18 @@
       <c r="E94" t="n">
         <v>100.0</v>
       </c>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="F94" t="n">
+        <v>0.625581709362431</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9499433588218635</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8355362946912243</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.16196886832141355</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2245,10 +2365,18 @@
       <c r="E96" t="n">
         <v>100.0</v>
       </c>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+      <c r="F96" t="n">
+        <v>0.6000041167366018</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9574962994290548</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8151260504201681</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.14098690835850958</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2287,10 +2415,18 @@
       <c r="E98" t="n">
         <v>100.0</v>
       </c>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+      <c r="F98" t="n">
+        <v>0.5417134952239976</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9166064692190384</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8599233264523739</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.17843177608561434</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2329,10 +2465,18 @@
       <c r="E100" t="n">
         <v>100.0</v>
       </c>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="F100" t="n">
+        <v>0.5989798003664267</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9429834254143646</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.844062153163152</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.150917176209005</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -2371,10 +2515,18 @@
       <c r="E102" t="n">
         <v>100.0</v>
       </c>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
+      <c r="F102" t="n">
+        <v>0.5553317887185042</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9164392358323968</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8599233264523739</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.17843177608561434</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2413,10 +2565,18 @@
       <c r="E104" t="n">
         <v>100.0</v>
       </c>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
+      <c r="F104" t="n">
+        <v>0.6091669283362371</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9429834254143646</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.8441486411536329</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.15095913261050875</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2455,10 +2615,18 @@
       <c r="E106" t="n">
         <v>100.0</v>
       </c>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
+      <c r="F106" t="n">
+        <v>0.5889843630788898</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9162719755960504</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.8599852616064849</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.17848687596500257</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2497,10 +2665,18 @@
       <c r="E108" t="n">
         <v>100.0</v>
       </c>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
+      <c r="F108" t="n">
+        <v>0.6176149945945834</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9429834254143646</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.843680709534368</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.1507230255839822</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2539,10 +2715,18 @@
       <c r="E110" t="n">
         <v>100.0</v>
       </c>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
+      <c r="F110" t="n">
+        <v>0.6973067385936423</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9135353535353535</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.8601059135039718</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.17862296433725006</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -2581,10 +2765,18 @@
       <c r="E112" t="n">
         <v>100.0</v>
       </c>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
+      <c r="F112" t="n">
+        <v>0.6617023347262766</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9405393457117595</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.8441127694859039</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.15093288777499303</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -2623,10 +2815,18 @@
       <c r="E114" t="n">
         <v>100.0</v>
       </c>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
+      <c r="F114" t="n">
+        <v>0.6645156126397953</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8965827338129496</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -2665,10 +2865,18 @@
       <c r="E116" t="n">
         <v>100.0</v>
       </c>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
+      <c r="F116" t="n">
+        <v>0.6577278047191878</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9482452243447357</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.8480083857442348</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.15292096219931273</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -2707,10 +2915,18 @@
       <c r="E118" t="n">
         <v>100.0</v>
       </c>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
+      <c r="F118" t="n">
+        <v>0.6757875467271994</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.8963935605719939</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -2749,10 +2965,18 @@
       <c r="E120" t="n">
         <v>100.0</v>
       </c>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
+      <c r="F120" t="n">
+        <v>0.6630381973357545</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.8480880041906758</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.15296476654253796</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -2791,10 +3015,18 @@
       <c r="E122" t="n">
         <v>100.0</v>
       </c>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
+      <c r="F122" t="n">
+        <v>0.6981690100833031</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8963036244266571</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -2833,10 +3065,18 @@
       <c r="E124" t="n">
         <v>100.0</v>
       </c>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
+      <c r="F124" t="n">
+        <v>0.6675265073050128</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.8476439790575916</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.15272206303724928</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -2875,10 +3115,18 @@
       <c r="E126" t="n">
         <v>100.0</v>
       </c>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
+      <c r="F126" t="n">
+        <v>0.7726603079967334</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8932390792097155</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.8631925655805199</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.19014876859607452</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -2917,10 +3165,18 @@
       <c r="E128" t="n">
         <v>100.0</v>
       </c>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
+      <c r="F128" t="n">
+        <v>0.7034027655385992</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9459879973327406</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8478829064296916</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.15285345569257242</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -2644,10 +2644,18 @@
       <c r="E99" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+      <c r="F99" t="n">
+        <v>0.09714138531900501</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9729683611210534</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8977105526455182</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.16431071381501186</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2744,10 +2752,18 @@
       <c r="E103" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
+      <c r="F103" t="n">
+        <v>0.11918715086940275</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9725611025523587</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9007698887938409</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.1644937325248971</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2844,10 +2860,18 @@
       <c r="E107" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
+      <c r="F107" t="n">
+        <v>0.14937110270732826</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9723266085810452</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9056981908785614</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.16481162047937414</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -3044,10 +3068,18 @@
       <c r="E115" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
+      <c r="F115" t="n">
+        <v>0.1789374990084493</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9873001550403055</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.8881824347236351</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.16605963290775697</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -3144,10 +3176,18 @@
       <c r="E119" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
+      <c r="F119" t="n">
+        <v>0.20204762533458265</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9869960728738879</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.8897543605864189</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.1662487773742901</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -3244,10 +3284,18 @@
       <c r="E123" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
+      <c r="F123" t="n">
+        <v>0.23880304226592025</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9866407353961842</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.8921876693032831</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.16656333772845155</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3444,10 +3492,18 @@
       <c r="E131" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
+      <c r="F131" t="n">
+        <v>0.23523241339944925</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9864306415449388</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.8767021113831089</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.16677433636314354</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -3644,10 +3700,18 @@
       <c r="E139" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
+      <c r="F139" t="n">
+        <v>0.3045028132169751</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.98576520142564</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.8780401438768474</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.16707186927174555</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -3844,10 +3908,18 @@
       <c r="E147" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
+      <c r="F147" t="n">
+        <v>0.3980633038514058</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9638167315339509</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.8241800848424029</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.157246149528699</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -4244,10 +4316,18 @@
       <c r="E163" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
+      <c r="F163" t="n">
+        <v>0.4764654263634855</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9451596926789002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.8309037580604409</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.15815912417156114</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -4644,10 +4724,18 @@
       <c r="E179" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
+      <c r="F179" t="n">
+        <v>0.5879268638221067</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.9152839609900784</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.8393992256307705</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.16361118590606608</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A4DEA-B011-4115-BC95-EC4205B7CEF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEBACB4-A719-44B8-A3B0-2A19EF84AD7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="3684" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10392" yWindow="3972" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,7 @@
         <v>0.39090265755734238</v>
       </c>
       <c r="G19">
-        <v>0.9636526594614383</v>
+        <v>0.95556586348402406</v>
       </c>
       <c r="H19">
         <v>0.4435153732253288</v>
@@ -988,6 +988,18 @@
       <c r="E23">
         <v>3000</v>
       </c>
+      <c r="F23">
+        <v>0.43762828849158847</v>
+      </c>
+      <c r="G23">
+        <v>0.94580304031725049</v>
+      </c>
+      <c r="H23">
+        <v>0.45767485526521673</v>
+      </c>
+      <c r="I23">
+        <v>0.67427802363246503</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1068,6 +1080,18 @@
       <c r="E27">
         <v>3000</v>
       </c>
+      <c r="F27">
+        <v>0.48965119649127259</v>
+      </c>
+      <c r="G27">
+        <v>0.93136768293326855</v>
+      </c>
+      <c r="H27">
+        <v>0.48952825654054799</v>
+      </c>
+      <c r="I27">
+        <v>0.67573271833768012</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1147,6 +1171,18 @@
       </c>
       <c r="E31">
         <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>0.63701747803985442</v>
+      </c>
+      <c r="G31">
+        <v>0.86200016207703911</v>
+      </c>
+      <c r="H31">
+        <v>0.59967446907456212</v>
+      </c>
+      <c r="I31">
+        <v>0.68574966538504167</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEBACB4-A719-44B8-A3B0-2A19EF84AD7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6EB52C-0CF3-4F33-B478-AC4B16CAF4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="3972" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -415,13 +418,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -476,7 +477,7 @@
         <v>0.66709098623992236</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -502,7 +503,7 @@
         <v>0.67318508245846664</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -525,7 +526,7 @@
         <v>0.86055555555555552</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0.86790152490345573</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -577,7 +578,7 @@
         <v>0.66721231963138106</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -603,7 +604,7 @@
         <v>0.67390501244280976</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -626,7 +627,7 @@
         <v>0.86055555555555552</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -652,7 +653,7 @@
         <v>0.86849993806515546</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -678,7 +679,7 @@
         <v>0.66737416616130985</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -704,7 +705,7 @@
         <v>0.67521341444811234</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -727,7 +728,7 @@
         <v>0.86055555555555552</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -753,7 +754,7 @@
         <v>0.86913564942510924</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -779,7 +780,7 @@
         <v>0.67573221757322177</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -805,7 +806,7 @@
         <v>0.6816606505620173</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0.86322244935885528</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -857,7 +858,7 @@
         <v>0.87418537291817522</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -883,7 +884,7 @@
         <v>0.66711573790569501</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -909,7 +910,7 @@
         <v>0.67358676701432618</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -935,7 +936,7 @@
         <v>0.85916824196597352</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -949,7 +950,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -975,7 +976,7 @@
         <v>0.66723831689838919</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>0.67427802363246503</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0.85933068633011911</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>0.66750413628286043</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>0.67573271833768012</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>0.85927747304709667</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>0.67799150637022232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>0.68574966538504167</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>0.86155018091792035</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>0.16077705827937094</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>0.16172333840638184</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>0.1487915407854985</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>0.153262367562781</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>0.16077705827937094</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>0.16197834964141339</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>0.14865885908575746</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>0.1533432002547914</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>0.1611626468769326</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>0.16243134624130318</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>0.14833711262282692</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0.15340574903953247</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0.16407283725033078</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>0.16612835512950067</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>0.14828175431934687</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>0.15383547379382159</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>0.16610320852203866</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>0.16690658158343846</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>0.15406941818480743</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>0.16633625375711453</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>0.16752450041295222</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>0.15425066842378701</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>0.16658124038954383</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>0.16810366011312183</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>0.14817629179331307</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>0.15447753140651682</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>0.16700977869274319</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>0.16860345448620093</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>0.14817629179331307</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>0.15468984460438973</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>0.16077705827937094</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>0.16172333840638184</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>0.1487915407854985</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>0.153262367562781</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>0.16077705827937094</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>0.16197834964141339</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>0.14865885908575746</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0.1533432002547914</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>0.1611626468769326</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>0.16243134624130318</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>0.14833711262282692</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>0.15340574903953247</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>0.16407283725033078</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0.16612835512950067</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>0.14828175431934687</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>0.15383547379382159</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>0.16610320852203866</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0.16690658158343846</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>0.15406941818480743</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>0.16633625375711453</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>0.16752450041295222</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>0.15425066842378701</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>0.16658124038954383</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>0.16810366011312183</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>0.14817629179331307</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>0.15447753140651682</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>0.16700977869274319</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0.16860345448620093</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>0.14817629179331307</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>0.15468984460438973</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>0.16633013629480062</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>0.16431071381501186</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0.15791520809023726</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -2992,8 +2993,20 @@
       <c r="E101">
         <v>3000</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>9.4935300383998764E-2</v>
+      </c>
+      <c r="G101">
+        <v>0.93663696968958332</v>
+      </c>
+      <c r="H101">
+        <v>0.89961247462631477</v>
+      </c>
+      <c r="I101">
+        <v>0.15862077774442621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3035,7 @@
         <v>0.16638262955248376</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>0.1644937325248971</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>0.15791520809023726</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3096,8 +3109,20 @@
       <c r="E105">
         <v>3000</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0.10574475609049247</v>
+      </c>
+      <c r="G105">
+        <v>0.93663696968958332</v>
+      </c>
+      <c r="H105">
+        <v>0.89988958410011044</v>
+      </c>
+      <c r="I105">
+        <v>0.15863597460495893</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3151,7 @@
         <v>0.16764182141948614</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3155,7 +3180,7 @@
         <v>0.16481162047937414</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3209,7 @@
         <v>0.15791520809023726</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -3200,8 +3225,20 @@
       <c r="E109">
         <v>3000</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0.1231944614553447</v>
+      </c>
+      <c r="G109">
+        <v>0.93637283712763231</v>
+      </c>
+      <c r="H109">
+        <v>0.90093998553868404</v>
+      </c>
+      <c r="I109">
+        <v>0.15870976813150292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3230,7 +3267,7 @@
         <v>0.16782326351308333</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -3247,7 +3284,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -3276,7 +3313,7 @@
         <v>0.15912208504801098</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3292,8 +3329,20 @@
       <c r="E113">
         <v>3000</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>0.18837019872599728</v>
+      </c>
+      <c r="G113">
+        <v>0.93608141748425833</v>
+      </c>
+      <c r="H113">
+        <v>0.90687100033681378</v>
+      </c>
+      <c r="I113">
+        <v>0.15909061783137471</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -3322,7 +3371,7 @@
         <v>0.16443966964345666</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -3351,7 +3400,7 @@
         <v>0.16605963290775697</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3429,7 @@
         <v>0.15472779369627507</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -3396,8 +3445,20 @@
       <c r="E117">
         <v>3000</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0.24691685334691088</v>
+      </c>
+      <c r="G117">
+        <v>0.97677428092060214</v>
+      </c>
+      <c r="H117">
+        <v>0.87509875177753205</v>
+      </c>
+      <c r="I117">
+        <v>0.15936575109480253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3487,7 @@
         <v>0.16512709864473063</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -3455,7 +3516,7 @@
         <v>0.16624877737429011</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -3484,7 +3545,7 @@
         <v>0.15472779369627507</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -3500,8 +3561,20 @@
       <c r="E121">
         <v>3000</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>0.25685844046940376</v>
+      </c>
+      <c r="G121">
+        <v>0.9767590586252558</v>
+      </c>
+      <c r="H121">
+        <v>0.87540262392960955</v>
+      </c>
+      <c r="I121">
+        <v>0.15940805648786435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3603,7 @@
         <v>0.16532775264969959</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +3632,7 @@
         <v>0.16656333772845155</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -3588,7 +3661,7 @@
         <v>0.15472779369627507</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -3604,8 +3677,20 @@
       <c r="E125">
         <v>3000</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0.27149235265058214</v>
+      </c>
+      <c r="G125">
+        <v>0.97643508169823956</v>
+      </c>
+      <c r="H125">
+        <v>0.87601435705368291</v>
+      </c>
+      <c r="I125">
+        <v>0.15948090948090948</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3719,7 @@
         <v>0.1654724888468298</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -3651,7 +3736,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3765,7 @@
         <v>0.15590843472881005</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -3696,8 +3781,20 @@
       <c r="E129">
         <v>3000</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>0.33979117670775538</v>
+      </c>
+      <c r="G129">
+        <v>0.97571871986499514</v>
+      </c>
+      <c r="H129">
+        <v>0.87917197929948254</v>
+      </c>
+      <c r="I129">
+        <v>0.15988753388445318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3726,7 +3823,7 @@
         <v>0.16754143646408839</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3852,7 @@
         <v>0.16677433636314354</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -3784,7 +3881,7 @@
         <v>0.15907710989678203</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -3800,8 +3897,20 @@
       <c r="E133">
         <v>3000</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>0.336597177186369</v>
+      </c>
+      <c r="G133">
+        <v>0.98239574368202798</v>
+      </c>
+      <c r="H133">
+        <v>0.86721302080348439</v>
+      </c>
+      <c r="I133">
+        <v>0.15955614281464672</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3939,7 @@
         <v>0.16756458074319658</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -3847,7 +3956,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -3876,7 +3985,7 @@
         <v>0.16017933564295903</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -3892,8 +4001,20 @@
       <c r="E137">
         <v>3000</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>0.34683351820578401</v>
+      </c>
+      <c r="G137">
+        <v>0.98236954835007917</v>
+      </c>
+      <c r="H137">
+        <v>0.86746299365605528</v>
+      </c>
+      <c r="I137">
+        <v>0.15959530251967088</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +4043,7 @@
         <v>0.16768039811998894</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -3951,7 +4072,7 @@
         <v>0.16707186927174555</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -3980,7 +4101,7 @@
         <v>0.16000815328169588</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -3996,8 +4117,20 @@
       <c r="E141">
         <v>3000</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>0.36189013892909327</v>
+      </c>
+      <c r="G141">
+        <v>0.98220329587917288</v>
+      </c>
+      <c r="H141">
+        <v>0.8676303209651719</v>
+      </c>
+      <c r="I141">
+        <v>0.15962971169025397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -4026,7 +4159,7 @@
         <v>0.16786603930251867</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4043,7 +4176,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4072,7 +4205,7 @@
         <v>0.16023678301694225</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -4088,8 +4221,20 @@
       <c r="E145">
         <v>3000</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>0.43362715650175115</v>
+      </c>
+      <c r="G145">
+        <v>0.9812908406065789</v>
+      </c>
+      <c r="H145">
+        <v>0.86957735469823016</v>
+      </c>
+      <c r="I145">
+        <v>0.15993587296740208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4263,7 @@
         <v>0.1617783006975376</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +4292,7 @@
         <v>0.157246149528699</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -4176,7 +4321,7 @@
         <v>0.14010989010989011</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -4192,8 +4337,20 @@
       <c r="E149">
         <v>3000</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>0.52223206158863145</v>
+      </c>
+      <c r="G149">
+        <v>0.95361465760238762</v>
+      </c>
+      <c r="H149">
+        <v>0.84159954107608093</v>
+      </c>
+      <c r="I149">
+        <v>0.15607133643467624</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4222,7 +4379,7 @@
         <v>0.1617783006975376</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4239,7 +4396,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -4268,7 +4425,7 @@
         <v>0.14102564102564102</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -4284,8 +4441,20 @@
       <c r="E153">
         <v>3000</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>0.52980843169437308</v>
+      </c>
+      <c r="G153">
+        <v>0.95352420168299457</v>
+      </c>
+      <c r="H153">
+        <v>0.841744815901878</v>
+      </c>
+      <c r="I153">
+        <v>0.15612067314497929</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -4314,7 +4483,7 @@
         <v>0.1617783006975376</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -4331,7 +4500,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4529,7 @@
         <v>0.1408096555192356</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4376,8 +4545,20 @@
       <c r="E157">
         <v>3000</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>0.54087895307085443</v>
+      </c>
+      <c r="G157">
+        <v>0.95324680709902143</v>
+      </c>
+      <c r="H157">
+        <v>0.84171632896305126</v>
+      </c>
+      <c r="I157">
+        <v>0.15610995418575593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -4406,7 +4587,7 @@
         <v>0.16196886832141355</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -4423,7 +4604,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -4452,7 +4633,7 @@
         <v>0.14098690835850958</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -4468,8 +4649,20 @@
       <c r="E161">
         <v>3000</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0.59383957260441089</v>
+      </c>
+      <c r="G161">
+        <v>0.95223535759495859</v>
+      </c>
+      <c r="H161">
+        <v>0.84207536451429654</v>
+      </c>
+      <c r="I161">
+        <v>0.15623121116975081</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -4498,7 +4691,7 @@
         <v>0.17843177608561434</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -4527,7 +4720,7 @@
         <v>0.15815912417156114</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4556,7 +4749,7 @@
         <v>0.15091717620900499</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -4572,8 +4765,20 @@
       <c r="E165">
         <v>3000</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>0.60695249761999315</v>
+      </c>
+      <c r="G165">
+        <v>0.93928945437447908</v>
+      </c>
+      <c r="H165">
+        <v>0.84801903907301568</v>
+      </c>
+      <c r="I165">
+        <v>0.15884483054444315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +4807,7 @@
         <v>0.17843177608561434</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -4619,7 +4824,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -4648,7 +4853,7 @@
         <v>0.15095913261050875</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -4664,8 +4869,20 @@
       <c r="E169">
         <v>3000</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>0.61259306516572287</v>
+      </c>
+      <c r="G169">
+        <v>0.93910354605886581</v>
+      </c>
+      <c r="H169">
+        <v>0.84803759090643216</v>
+      </c>
+      <c r="I169">
+        <v>0.15885503698819448</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -4694,7 +4911,7 @@
         <v>0.17848687596500257</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4928,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4957,7 @@
         <v>0.15072302558398221</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -4756,8 +4973,20 @@
       <c r="E173">
         <v>3000</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0.62124242606729452</v>
+      </c>
+      <c r="G173">
+        <v>0.93897764033575126</v>
+      </c>
+      <c r="H173">
+        <v>0.84795401402961812</v>
+      </c>
+      <c r="I173">
+        <v>0.15881821467293097</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +5015,7 @@
         <v>0.17862296433725006</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -4803,7 +5032,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -4832,7 +5061,7 @@
         <v>0.15093288777499303</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -4848,8 +5077,20 @@
       <c r="E177">
         <v>3000</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0.66189198041641251</v>
+      </c>
+      <c r="G177">
+        <v>0.93782084188911707</v>
+      </c>
+      <c r="H177">
+        <v>0.84828629032258063</v>
+      </c>
+      <c r="I177">
+        <v>0.15898963918272713</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -4878,7 +5119,7 @@
         <v>0.18988764044943821</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +5148,7 @@
         <v>0.16361118590606608</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -4936,7 +5177,7 @@
         <v>0.15292096219931273</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -4952,8 +5193,20 @@
       <c r="E181">
         <v>3000</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0.68969916772274986</v>
+      </c>
+      <c r="G181">
+        <v>0.92110773237446264</v>
+      </c>
+      <c r="H181">
+        <v>0.84905088047000976</v>
+      </c>
+      <c r="I181">
+        <v>0.16028098990569931</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -4982,7 +5235,7 @@
         <v>0.18988764044943821</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -4999,7 +5252,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -5028,7 +5281,7 @@
         <v>0.15296476654253796</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -5044,8 +5297,20 @@
       <c r="E185">
         <v>3000</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>0.69349744469145214</v>
+      </c>
+      <c r="G185">
+        <v>0.9210610040324072</v>
+      </c>
+      <c r="H185">
+        <v>0.84896356934271622</v>
+      </c>
+      <c r="I185">
+        <v>0.16022872559975032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -5074,7 +5339,7 @@
         <v>0.18988764044943821</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -5091,7 +5356,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -5120,7 +5385,7 @@
         <v>0.15272206303724928</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -5136,8 +5401,20 @@
       <c r="E189">
         <v>3000</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>0.69885968492947825</v>
+      </c>
+      <c r="G189">
+        <v>0.92095098561534361</v>
+      </c>
+      <c r="H189">
+        <v>0.84894438066079858</v>
+      </c>
+      <c r="I189">
+        <v>0.16022077189589881</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -5166,7 +5443,7 @@
         <v>0.19014876859607452</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -5183,7 +5460,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5212,7 +5489,7 @@
         <v>0.15285345569257242</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -5227,6 +5504,18 @@
       </c>
       <c r="E193">
         <v>3000</v>
+      </c>
+      <c r="F193">
+        <v>0.7265430694955971</v>
+      </c>
+      <c r="G193">
+        <v>0.91983828451263216</v>
+      </c>
+      <c r="H193">
+        <v>0.84900076374745415</v>
+      </c>
+      <c r="I193">
+        <v>0.16026908181378086</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows) max post adj.xlsx
@@ -5284,10 +5284,18 @@
       <c r="E187" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
+      <c r="F187" t="n">
+        <v>0.6214290998705051</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.914872251964595</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.8396531158869698</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.16384816723653423</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -5392,10 +5400,18 @@
       <c r="E191" t="n">
         <v>3000.0</v>
       </c>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
+      <c r="F191" t="n">
+        <v>0.7102671753925944</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9124748661890063</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.8410477487016589</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.16517252649764205</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
